--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/92.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/92.xlsx
@@ -479,13 +479,13 @@
         <v>-0.4058630433846038</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.320735186282449</v>
+        <v>-1.320016842621722</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1655976984867588</v>
+        <v>-0.166891301095304</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1280423414924053</v>
+        <v>-0.1290439344827687</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.439189422072446</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.388963233570612</v>
+        <v>-1.389191001072794</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2332782277408316</v>
+        <v>-0.234726595447013</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1331510497624948</v>
+        <v>-0.1338051513072219</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.4710930002768562</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.49216089268413</v>
+        <v>-1.492778493026584</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.280126790833819</v>
+        <v>-0.2810583015158187</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1379268670678572</v>
+        <v>-0.1386890121713115</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4835506339134118</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.643331351920635</v>
+        <v>-1.64491404405118</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2912348367094524</v>
+        <v>-0.2916232095016341</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1485355764963998</v>
+        <v>-0.149140036406036</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4729748958812516</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.737755582055882</v>
+        <v>-1.739269651926155</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2899923357840891</v>
+        <v>-0.2905515342029071</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.167275293743213</v>
+        <v>-0.1672986545126675</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4444706643062414</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.57812268408447</v>
+        <v>-1.579718516647834</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2227980025442889</v>
+        <v>-0.2231703148074707</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1749274057876654</v>
+        <v>-0.1742397231368474</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4086435257329385</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.420656497479967</v>
+        <v>-1.421328119601785</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1456622018534915</v>
+        <v>-0.1466433541705821</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1537056067863075</v>
+        <v>-0.1536004833237621</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3707902405840731</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.150973934704403</v>
+        <v>-1.151409029035494</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.003490019001256921</v>
+        <v>-0.00456899454043845</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1316428200845861</v>
+        <v>-0.1310734013291318</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3305863116250548</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7809714676025027</v>
+        <v>-0.7806079156278665</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08258127600590179</v>
+        <v>0.08178262970017473</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1184863267374079</v>
+        <v>-0.1175796368729536</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.283464067423387</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4074692652266939</v>
+        <v>-0.4060267377128761</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1268616145069808</v>
+        <v>0.1249124503056177</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07409502458141978</v>
+        <v>-0.07366139029841989</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2260482721463901</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06079151829718037</v>
+        <v>0.06251291499636172</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1397786599672501</v>
+        <v>0.1382514496641596</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0273622572077348</v>
+        <v>0.027630906056462</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1543455266022997</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6009348494807626</v>
+        <v>0.6027467691615803</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05982934660527153</v>
+        <v>0.05837951885099919</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1776274866278763</v>
+        <v>0.1786831013976032</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.06873668367242811</v>
       </c>
       <c r="E14" t="n">
-        <v>1.164671097765339</v>
+        <v>1.167014474951247</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08817134822587054</v>
+        <v>-0.0888181495301431</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3064723505062962</v>
+        <v>0.307530885372205</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.02880677700828545</v>
       </c>
       <c r="E15" t="n">
-        <v>1.812716363011346</v>
+        <v>1.814301975238073</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2580479436030977</v>
+        <v>-0.2574770647995523</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4880848124382474</v>
+        <v>0.48861919003952</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.136872434608541</v>
       </c>
       <c r="E16" t="n">
-        <v>2.43906385357836</v>
+        <v>2.441415991052814</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4953831409245794</v>
+        <v>-0.4947217391393978</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6053763157733069</v>
+        <v>0.6062333640026702</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2581631295889716</v>
       </c>
       <c r="E17" t="n">
-        <v>3.049750868322287</v>
+        <v>3.052319092914195</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6294009551890889</v>
+        <v>-0.6291571271579071</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7919500211181658</v>
+        <v>0.7924843987194384</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3914426480246594</v>
       </c>
       <c r="E18" t="n">
-        <v>3.648211440352944</v>
+        <v>3.652308335296034</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7523428446359649</v>
+        <v>-0.7522216606444195</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9349588115264911</v>
+        <v>0.9348303272944911</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5321021237716453</v>
       </c>
       <c r="E19" t="n">
-        <v>4.182292651863074</v>
+        <v>4.186281503247436</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9109361883666496</v>
+        <v>-0.910610597642377</v>
       </c>
       <c r="G19" t="n">
-        <v>1.087198025965541</v>
+        <v>1.087211166398359</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6760033101310606</v>
       </c>
       <c r="E20" t="n">
-        <v>4.725534205095564</v>
+        <v>4.729455894267745</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.12529314883341</v>
+        <v>-1.125364691189865</v>
       </c>
       <c r="G20" t="n">
-        <v>1.246511173405044</v>
+        <v>1.246471752106589</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8133544026598225</v>
       </c>
       <c r="E21" t="n">
-        <v>5.18422145328735</v>
+        <v>5.189008950977439</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.28169350033155</v>
+        <v>-1.281728541485732</v>
       </c>
       <c r="G21" t="n">
-        <v>1.422404626964906</v>
+        <v>1.422553551870178</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9333392279026199</v>
       </c>
       <c r="E22" t="n">
-        <v>5.588717556536968</v>
+        <v>5.59315464268524</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.488934186403222</v>
+        <v>-1.489113772318403</v>
       </c>
       <c r="G22" t="n">
-        <v>1.538614234664602</v>
+        <v>1.538376246825784</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.026198791777815</v>
       </c>
       <c r="E23" t="n">
-        <v>5.859486395092169</v>
+        <v>5.864462238985985</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.668073326869174</v>
+        <v>-1.668899714088628</v>
       </c>
       <c r="G23" t="n">
-        <v>1.699149442356195</v>
+        <v>1.699237045241649</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.08917638610242</v>
       </c>
       <c r="E24" t="n">
-        <v>6.164753249939359</v>
+        <v>6.169480885657721</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.841216779849809</v>
+        <v>-1.841861391081945</v>
       </c>
       <c r="G24" t="n">
-        <v>1.813769057684891</v>
+        <v>1.813052174072255</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.124957188392335</v>
       </c>
       <c r="E25" t="n">
-        <v>6.377977213087575</v>
+        <v>6.382347137023665</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.976690262060954</v>
+        <v>-1.977537089953681</v>
       </c>
       <c r="G25" t="n">
-        <v>1.917073300309046</v>
+        <v>1.916137409482773</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.137182858901557</v>
       </c>
       <c r="E26" t="n">
-        <v>6.478078110200276</v>
+        <v>6.481824593601547</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.084243244629653</v>
+        <v>-2.084841864346925</v>
       </c>
       <c r="G26" t="n">
-        <v>1.980893462410756</v>
+        <v>1.980265641731665</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.131057058282948</v>
       </c>
       <c r="E27" t="n">
-        <v>6.531380085855079</v>
+        <v>6.535059407044169</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.172738949491765</v>
+        <v>-2.172795161343265</v>
       </c>
       <c r="G27" t="n">
-        <v>2.063411000364642</v>
+        <v>2.06269995694437</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.111145086925507</v>
       </c>
       <c r="E28" t="n">
-        <v>6.642273658455776</v>
+        <v>6.645741272671684</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.232777587038022</v>
+        <v>-2.232287010879477</v>
       </c>
       <c r="G28" t="n">
-        <v>2.09309961824518</v>
+        <v>2.092557940403453</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.08084458209684</v>
       </c>
       <c r="E29" t="n">
-        <v>6.579507651075703</v>
+        <v>6.583049727744247</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.293338191776778</v>
+        <v>-2.292998730595642</v>
       </c>
       <c r="G29" t="n">
-        <v>2.139775895663441</v>
+        <v>2.138905707001259</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.042345060376181</v>
       </c>
       <c r="E30" t="n">
-        <v>6.54465192300144</v>
+        <v>6.549213113237438</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.329089659354814</v>
+        <v>-2.328548711537132</v>
       </c>
       <c r="G30" t="n">
-        <v>2.124449770853172</v>
+        <v>2.123413136708626</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9976982989246573</v>
       </c>
       <c r="E31" t="n">
-        <v>6.455843037823827</v>
+        <v>6.460188140942371</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.311124497620228</v>
+        <v>-2.31029227020841</v>
       </c>
       <c r="G31" t="n">
-        <v>2.108019849686176</v>
+        <v>2.106311593419813</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9478788332174819</v>
       </c>
       <c r="E32" t="n">
-        <v>6.281504535480782</v>
+        <v>6.285218897824055</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.3167018813275</v>
+        <v>-2.315846293146227</v>
       </c>
       <c r="G32" t="n">
-        <v>2.044493157250739</v>
+        <v>2.043100271372012</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8944240445142752</v>
       </c>
       <c r="E33" t="n">
-        <v>6.096203992071196</v>
+        <v>6.10106303211774</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.340313779053675</v>
+        <v>-2.338731816947175</v>
       </c>
       <c r="G33" t="n">
-        <v>1.978325237818847</v>
+        <v>1.977453589108575</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.837654302644621</v>
       </c>
       <c r="E34" t="n">
-        <v>5.858112489838624</v>
+        <v>5.862581697044895</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.381900328827027</v>
+        <v>-2.381439683654346</v>
       </c>
       <c r="G34" t="n">
-        <v>1.895394506255233</v>
+        <v>1.894061482348234</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7792959606363541</v>
       </c>
       <c r="E35" t="n">
-        <v>5.633075277586866</v>
+        <v>5.637623327390046</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.369712577388167</v>
+        <v>-2.369143158632713</v>
       </c>
       <c r="G35" t="n">
-        <v>1.826982492907615</v>
+        <v>1.825773573088343</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7211986628117589</v>
       </c>
       <c r="E36" t="n">
-        <v>5.443674919138008</v>
+        <v>5.448215668700734</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.330016059868496</v>
+        <v>-2.330249667563041</v>
       </c>
       <c r="G36" t="n">
-        <v>1.739528532358366</v>
+        <v>1.737977961285821</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6641580785190083</v>
       </c>
       <c r="E37" t="n">
-        <v>5.082329077167104</v>
+        <v>5.086576357063558</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.270586262376148</v>
+        <v>-2.270503039634967</v>
       </c>
       <c r="G37" t="n">
-        <v>1.65145259132239</v>
+        <v>1.650458298572481</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6096700708629353</v>
       </c>
       <c r="E38" t="n">
-        <v>4.80641064899527</v>
+        <v>4.811484316111177</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.164529829100631</v>
+        <v>-2.165068586846176</v>
       </c>
       <c r="G38" t="n">
-        <v>1.550361781604053</v>
+        <v>1.550128173909508</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5574861924709129</v>
       </c>
       <c r="E39" t="n">
-        <v>4.512473767333531</v>
+        <v>4.51759853613262</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.146402602027954</v>
+        <v>-2.147015092202091</v>
       </c>
       <c r="G39" t="n">
-        <v>1.438193587019992</v>
+        <v>1.438416974377901</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5086452631400986</v>
       </c>
       <c r="E40" t="n">
-        <v>4.244585603661693</v>
+        <v>4.249587728421147</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.11762724422828</v>
+        <v>-2.118154321589098</v>
       </c>
       <c r="G40" t="n">
-        <v>1.383619909478007</v>
+        <v>1.382824183268462</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4622845359275929</v>
       </c>
       <c r="E41" t="n">
-        <v>3.951276542679045</v>
+        <v>3.955517982383134</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.027906559017895</v>
+        <v>-2.028418305873759</v>
       </c>
       <c r="G41" t="n">
-        <v>1.263072498900221</v>
+        <v>1.262435917932585</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4172660942583076</v>
       </c>
       <c r="E42" t="n">
-        <v>3.697743571837022</v>
+        <v>3.701609779181748</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.933429037127329</v>
+        <v>-1.933871431698875</v>
       </c>
       <c r="G42" t="n">
-        <v>1.158064380153977</v>
+        <v>1.15750810183134</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3724301819718062</v>
       </c>
       <c r="E43" t="n">
-        <v>3.426511898037004</v>
+        <v>3.430814659760912</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.865585712511121</v>
+        <v>-1.866183602204348</v>
       </c>
       <c r="G43" t="n">
-        <v>1.064860750222729</v>
+        <v>1.064519098969456</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3262337198386646</v>
       </c>
       <c r="E44" t="n">
-        <v>3.158086436667712</v>
+        <v>3.162670987673166</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.825690628451086</v>
+        <v>-1.826124262734086</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9306531297064013</v>
+        <v>0.9307013112934013</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2786529558138726</v>
       </c>
       <c r="E45" t="n">
-        <v>2.900383568478054</v>
+        <v>2.90498856015678</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.743363626773063</v>
+        <v>-1.743204481531153</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8109496269251607</v>
+        <v>0.8105276730268881</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2295354683438605</v>
       </c>
       <c r="E46" t="n">
-        <v>2.652582746440939</v>
+        <v>2.656497135372665</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.69575145852853</v>
+        <v>-1.695295923524166</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7696507066257173</v>
+        <v>0.7696215056638991</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1809968475493971</v>
       </c>
       <c r="E47" t="n">
-        <v>2.352455260873747</v>
+        <v>2.356617857980928</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.648759810722633</v>
+        <v>-1.648317416151088</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6632570022412004</v>
+        <v>0.6629255713245641</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1340768014081681</v>
       </c>
       <c r="E48" t="n">
-        <v>2.161513091640889</v>
+        <v>2.165287315955888</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.614607825828188</v>
+        <v>-1.614098269044461</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6009304693364899</v>
+        <v>0.6007246025556717</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.09007683383498825</v>
       </c>
       <c r="E49" t="n">
-        <v>1.963828420324215</v>
+        <v>1.967621625264396</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.566411638347292</v>
+        <v>-1.565569190598837</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5400347835608699</v>
+        <v>0.5396712315862336</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.04903647610879408</v>
       </c>
       <c r="E50" t="n">
-        <v>1.852753801760245</v>
+        <v>1.855923566165607</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.493648681688766</v>
+        <v>-1.49265876908313</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4787113036946136</v>
+        <v>0.4783506718161591</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.01057683971529636</v>
       </c>
       <c r="E51" t="n">
-        <v>1.675776992516929</v>
+        <v>1.678970117691746</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.43698567532869</v>
+        <v>-1.435375242284418</v>
       </c>
       <c r="G51" t="n">
-        <v>0.420319600394902</v>
+        <v>0.4203502614048111</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.02567815136728221</v>
       </c>
       <c r="E52" t="n">
-        <v>1.557467835662506</v>
+        <v>1.560627379731232</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.397600878076428</v>
+        <v>-1.395780198107065</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3395979215928328</v>
+        <v>0.339418335677651</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.06171433655888062</v>
       </c>
       <c r="E53" t="n">
-        <v>1.381523280419462</v>
+        <v>1.383764454239007</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.359511143480802</v>
+        <v>-1.358037954957075</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2724196488820326</v>
+        <v>0.2725466730659417</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.09779513038274408</v>
       </c>
       <c r="E54" t="n">
-        <v>1.327927835098386</v>
+        <v>1.330884432482476</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.340663382675261</v>
+        <v>-1.339260276459898</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2219516265716825</v>
+        <v>0.2213909681047736</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1348371395294744</v>
       </c>
       <c r="E55" t="n">
-        <v>1.206409492540145</v>
+        <v>1.208494441213963</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.304057056939999</v>
+        <v>-1.303045243612999</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1637701701970618</v>
+        <v>0.1644009109723344</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1727639445758579</v>
       </c>
       <c r="E56" t="n">
-        <v>1.175878426911154</v>
+        <v>1.178156101932971</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.251945020479285</v>
+        <v>-1.250372548685377</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1028409033153509</v>
+        <v>0.1039549200087142</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2116581737277336</v>
       </c>
       <c r="E57" t="n">
-        <v>1.084587459978996</v>
+        <v>1.087165904907541</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.242924843373651</v>
+        <v>-1.241908649902379</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05934023049481712</v>
+        <v>0.06050388882327135</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2507978678935386</v>
       </c>
       <c r="E58" t="n">
-        <v>1.030342293257466</v>
+        <v>1.033266769583556</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.205271663157207</v>
+        <v>-1.204255469685934</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01781309077307126</v>
+        <v>-0.01628588046998076</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.288888737581923</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9219935844792219</v>
+        <v>0.9247939567175847</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.121740851828229</v>
+        <v>-1.120542152345593</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09448021602668703</v>
+        <v>-0.09287854327096019</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3254574453175106</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8959229657679562</v>
+        <v>0.899970219075955</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102390834479416</v>
+        <v>-1.101273897689871</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.121682372008407</v>
+        <v>-0.1199376145397711</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3594714985623477</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7635973472408099</v>
+        <v>0.7674372737198997</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.073259954969606</v>
+        <v>-1.071808667167243</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1510541594532173</v>
+        <v>-0.1491225158289451</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3907884633541757</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7243483344610022</v>
+        <v>0.7278393094463649</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.068006701938516</v>
+        <v>-1.066650317262062</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2253516266552883</v>
+        <v>-0.2238171161117432</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4188275933870648</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6330281665670268</v>
+        <v>0.6368315918438439</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.102479897412962</v>
+        <v>-1.101040289995326</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2408441969479204</v>
+        <v>-0.2390220569304664</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4437865768318747</v>
       </c>
       <c r="E64" t="n">
-        <v>0.541455410353324</v>
+        <v>0.5463903729005954</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.08899635329342</v>
+        <v>-1.087347958998784</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.292087504794543</v>
+        <v>-0.2897455876567255</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4653935395121691</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4556498440987107</v>
+        <v>0.4608388550138002</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.056527803847792</v>
+        <v>-1.05506191556452</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.325398501988625</v>
+        <v>-0.3226390110968076</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4839414606716935</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4074434362811782</v>
+        <v>0.4123594182032678</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.071942991591606</v>
+        <v>-1.070547185616698</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3537701564911629</v>
+        <v>-0.3510004452627091</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4989482653262187</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3775182906099135</v>
+        <v>0.3830153716721847</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.090789292349056</v>
+        <v>-1.089057675313238</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3883207345144263</v>
+        <v>-0.3848691808275181</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5093050083083418</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2979252289821167</v>
+        <v>0.303629636873297</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.10554599840387</v>
+        <v>-1.104208594352598</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3978986499907874</v>
+        <v>-0.3949493528471518</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5144583919148112</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1927900860519631</v>
+        <v>0.1988945471200524</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.146392303795132</v>
+        <v>-1.145422831862768</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4220011238755082</v>
+        <v>-0.4185554103809637</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5141872171422288</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1297349891498891</v>
+        <v>0.1356978255531603</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.194490668053937</v>
+        <v>-1.193385411649119</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4383741031669584</v>
+        <v>-0.4352817213104137</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5092920102117225</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08023059857953878</v>
+        <v>0.08551013247626464</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.279488827714278</v>
+        <v>-1.279249379827369</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4981995736919423</v>
+        <v>-0.4954021215497612</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4999640321146098</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.007200001200255925</v>
+        <v>-0.001343748307621134</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.31577248282145</v>
+        <v>-1.315581216521541</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4923053595489438</v>
+        <v>-0.4897093940433082</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4859157180329667</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.02049373906797963</v>
+        <v>-0.01479809146534479</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.305941979025362</v>
+        <v>-1.30553754570418</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5422506846427486</v>
+        <v>-0.5397087409164766</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4655538987740079</v>
       </c>
       <c r="E74" t="n">
-        <v>0.009882561463375851</v>
+        <v>0.01546724541110162</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346205725228351</v>
+        <v>-1.345789611522442</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5266821918493891</v>
+        <v>-0.5248337709662988</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.437895246274519</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0149766692525563</v>
+        <v>0.02070443791319113</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.395999205320701</v>
+        <v>-1.395946643589429</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4779881279694931</v>
+        <v>-0.4758710582376756</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4026196562513254</v>
       </c>
       <c r="E76" t="n">
-        <v>0.06734129403299678</v>
+        <v>0.07257556643890448</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342393539662988</v>
+        <v>-1.342132191054716</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4885778567728539</v>
+        <v>-0.4863717241074909</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3610057728481936</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1804190985776937</v>
+        <v>0.1857468140614195</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.34056409940508</v>
+        <v>-1.340384513489898</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4340377603369595</v>
+        <v>-0.4320374944524146</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3158986965506198</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2662918270444888</v>
+        <v>0.2707245330484876</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.306489497059452</v>
+        <v>-1.306264649653452</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4347882250556865</v>
+        <v>-0.4332172133098688</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2697709193473566</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3591377451934639</v>
+        <v>0.3629922721534629</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.323783766696266</v>
+        <v>-1.322241955912266</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.402957716625786</v>
+        <v>-0.4015560704585137</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2250768736082454</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4630201668616178</v>
+        <v>0.4658219991480716</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.338553613183898</v>
+        <v>-1.337940392985717</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3443601465452563</v>
+        <v>-0.3432198489862566</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1828823631116672</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5628188340195001</v>
+        <v>0.5648599812505904</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286317472635458</v>
+        <v>-1.285796235467004</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2927021850408156</v>
+        <v>-0.2919108389755431</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1442363524201437</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7000312335069178</v>
+        <v>0.7011978119315538</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.222208221011748</v>
+        <v>-1.221126325376384</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2594890110688245</v>
+        <v>-0.2585969216852793</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1089063958691649</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8562943404845123</v>
+        <v>0.856824337941512</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.16533350767849</v>
+        <v>-1.164835631279491</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2161825246443816</v>
+        <v>-0.2154583407912909</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.07564374461732624</v>
       </c>
       <c r="E84" t="n">
-        <v>1.026325700959376</v>
+        <v>1.026340301440285</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.074868927965787</v>
+        <v>-1.074111163006606</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.165019519442759</v>
+        <v>-0.1652779479548498</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04350015064057183</v>
       </c>
       <c r="E85" t="n">
-        <v>1.12201433274135</v>
+        <v>1.120770371767896</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.004734057870897</v>
+        <v>-1.003392273675352</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1308908953177682</v>
+        <v>-0.1312267063786772</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.01242276606462017</v>
       </c>
       <c r="E86" t="n">
-        <v>1.288493396211033</v>
+        <v>1.28648144994176</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9283516419950085</v>
+        <v>-0.9269645963086454</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04572629017506376</v>
+        <v>-0.04620080580460909</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.01617094963793507</v>
       </c>
       <c r="E87" t="n">
-        <v>1.385754499786916</v>
+        <v>1.38410610549228</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8281558417563991</v>
+        <v>-0.8268899800615813</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01656474965534432</v>
+        <v>-0.01699546384216239</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.0403627086191096</v>
       </c>
       <c r="E88" t="n">
-        <v>1.473164658893438</v>
+        <v>1.471341058827893</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6998906169700699</v>
+        <v>-0.6992525759543429</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03485814410646006</v>
+        <v>0.0343456672265511</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.0579331803214046</v>
       </c>
       <c r="E89" t="n">
-        <v>1.570678350789048</v>
+        <v>1.568746707164775</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5685870321065597</v>
+        <v>-0.5675153568078327</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08014445574217517</v>
+        <v>0.07994442915372067</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.06780840768771014</v>
       </c>
       <c r="E90" t="n">
-        <v>1.631831005028668</v>
+        <v>1.62919999836885</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4395100205816853</v>
+        <v>-0.4389800231246854</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09370392236244425</v>
+        <v>0.09318268519398985</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.0690466287360889</v>
       </c>
       <c r="E91" t="n">
-        <v>1.676709963247019</v>
+        <v>1.673680363458384</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2803603985283644</v>
+        <v>-0.2792230210655465</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1082007398570767</v>
+        <v>0.1074035535994406</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06193304590586432</v>
       </c>
       <c r="E92" t="n">
-        <v>1.706524145263375</v>
+        <v>1.703361681098467</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1201726822824074</v>
+        <v>-0.1199273942031348</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1036921113523507</v>
+        <v>0.1036731307271689</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.04828904364793603</v>
       </c>
       <c r="E93" t="n">
-        <v>1.702825843449103</v>
+        <v>1.69988092644974</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03889517707782261</v>
+        <v>0.03866740957564085</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09953097429326087</v>
+        <v>0.09943169102307908</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03149778159054116</v>
       </c>
       <c r="E94" t="n">
-        <v>1.651537274111662</v>
+        <v>1.648355829321572</v>
       </c>
       <c r="F94" t="n">
-        <v>0.149645664965611</v>
+        <v>0.148654292311884</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06037978473554411</v>
+        <v>0.06025130050354414</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.015789882445318</v>
       </c>
       <c r="E95" t="n">
-        <v>1.562144369697686</v>
+        <v>1.558510309999415</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2346511248664064</v>
+        <v>0.2333064205746795</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01176456345255716</v>
+        <v>0.0118886675402844</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.004263922991859667</v>
       </c>
       <c r="E96" t="n">
-        <v>1.438783446448719</v>
+        <v>1.435409275310629</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3141857845705669</v>
+        <v>0.3127695379223854</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0287634514548865</v>
+        <v>-0.02831959683525025</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.003388900124584312</v>
       </c>
       <c r="E97" t="n">
-        <v>1.28452060535567</v>
+        <v>1.280845664310853</v>
       </c>
       <c r="F97" t="n">
-        <v>0.36342152629219</v>
+        <v>0.3623907323400085</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04953847574042637</v>
+        <v>-0.04899825794679016</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.0107836702742264</v>
       </c>
       <c r="E98" t="n">
-        <v>1.151190473741978</v>
+        <v>1.148171094289979</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3824941345037303</v>
+        <v>0.3816925681018215</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08686314513641635</v>
+        <v>-0.08622802421687106</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.01834216257830888</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9964180758652018</v>
+        <v>0.9940673984388388</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3775460315236407</v>
+        <v>0.37685396872855</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1272480753309509</v>
+        <v>-0.1265749931610421</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.02936490548765207</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8875262291971402</v>
+        <v>0.8859362368261406</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3467010555551036</v>
+        <v>0.3463185229552855</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1419609799430379</v>
+        <v>-0.1411856944067654</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.04249920424544684</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7462943173154508</v>
+        <v>0.7453525862968148</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3476238059485579</v>
+        <v>0.3476325662371034</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.13420374443604</v>
+        <v>-0.1335146017371311</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.06385739983646438</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6331624909913903</v>
+        <v>0.6316469610730271</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3049991619825693</v>
+        <v>0.3049904016940239</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1944526289073875</v>
+        <v>-0.194268662847933</v>
       </c>
     </row>
   </sheetData>
